--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4030190.116297001</v>
+        <v>4026135.990537622</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>163.5286324743868</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>176.8479946046584</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08388071561104198</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>59.51022578047588</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>87.56115536271761</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.03827581916127</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>135.5711629328814</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159629</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>195.0465954186455</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>71.67037196991708</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>19.89928445781482</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>32.37373183919259</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.7072979240973</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>153.5899618586519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.21875275158355</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35.0178230565857</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.73433514020032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457416936</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695571</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012206</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016448</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>159.9541141388966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722443</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>249.7682289193545</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>70.0455488112366</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>96.99837838563744</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.52079624060465</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0663491738892</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1449.505074804839</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2383.704990415652</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2383.704990415652</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2052.642103072081</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1699.873447801967</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>1699.873447801967</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.104914868961</v>
+        <v>1699.873447801967</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>343.626060018204</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>638.3296170496758</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.2765195627319</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.17075694911</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>859.4862687432226</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>570.069098706262</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>570.069098706262</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.2765195627319</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258596</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2795.806654315204</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2443.037999045089</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,28 +4670,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.5770176220484</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1598.668095296247</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384687</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.5449729949386</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>1712.34156756514</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>985.1133520179776</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>599.3250994197333</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>188.3391946301257</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3128.589058560035</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3128.589058560035</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2797.526171216464</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2797.526171216464</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.060412955384</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.921080979572</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
@@ -5041,13 +5041,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615996</v>
@@ -5120,16 +5120,16 @@
         <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168594</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239595</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770339</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491272</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367915</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.2179484367915</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851781</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648821</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750804</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072735</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5518,16 +5518,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446605</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5652,67 +5652,67 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
         <v>1056.188523744657</v>
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,16 +5834,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4652.228351639418</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4469.373517294322</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4469.373517294322</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4180.29829063852</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4180.29829063852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3890.88112060156</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3662.891569703542</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3442.098990560012</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2546.907945506608</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3042.233551722367</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3639.612039348919</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>4267.210002903525</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3229.995673940461</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3061.059491012554</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2910.942851600219</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3860.426268812248</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3632.436717914231</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3411.644138770701</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3524.185693912098</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551857</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611445</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004695</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406451</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311169</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075766</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301477</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355926</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291067997</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694692</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852239</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398576</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492561</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474766</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466556</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612122985</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852871</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591791</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615979</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300126</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568975</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028054</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797153</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797153</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797153</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797153</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745215</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998428</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237713</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.15997273278</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
         <v>2244.643795685161</v>
@@ -6587,7 +6587,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135299</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856229</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782949</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797719</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.06254548756</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510501</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854699</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648812</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648812</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.1315533873</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.33897424377</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551857</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611446</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004695</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075772</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291067997</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694692</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852239</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398576</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492561</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474766</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466556</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612122985</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852871</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591791</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615979</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615649</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334522</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.78353867327</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667815</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.0115256947</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740608</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385774</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385774</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913428</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084647</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2884.660124662792</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3482.038612289341</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289341</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528627</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023694</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398576</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398576</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301189</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022963</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566148</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334405</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606203</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400671</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635717</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.6376870732867</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>550.6376870732867</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>550.6376870732867</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057735</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797153</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.169940187922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1470.485451982035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1181.068281945074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>953.0787310470565</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>732.2861519035264</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551868</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611457</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004707</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406462</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168547</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638193412</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311179</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075866</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.26572885225</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398587</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492572</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474777</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466567</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612122996</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852882</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591802</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.37586661599</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797174</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797174</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756258</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>417.9651836029473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>913.2907898187045</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187045</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.88875337331</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612595</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.647281583949</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243707</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098131</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671689</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398587</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650989</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305893</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.932614305893</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4370.179534698584</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4115.495046492697</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3826.077876455736</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3598.088325557719</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3377.295746414189</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,43 +7162,43 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638194282</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111873</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075949</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,40 +7238,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637291</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890279</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444884</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190827</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798835954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>415.5933575433528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>415.5933575433528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578604</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>45.76488231024513</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-4.034444200650487e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>185.0317184880957</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>5.713750098833827</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>72.11969353038523</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.15649395853814</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>111.4161395899835</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>142.9753202488369</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>65.75554125014065</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>36.41624546988965</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>216.1389255780076</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.52575990663144</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.85445046951701</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>101.118125215355</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633843.3781250035</v>
+        <v>633843.3781250037</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>614509.1092426894</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>614509.1092426894</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>614509.1092426892</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>614509.1092426892</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>614509.1092426892</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900065</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
@@ -26352,10 +26352,10 @@
         <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.385230391931075e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.403002549224767e-10</v>
+        <v>2.499311276865072e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605105</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551241</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
-        <v>4.45519617642276e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312011</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312011</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768981</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321769007</v>
+        <v>9947.144321768979</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26444,19 +26444,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321769611</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321769692</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768992</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26496,13 +26496,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239069</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524578.1965587029</v>
+        <v>-524578.1965587027</v>
       </c>
       <c r="C6" t="n">
-        <v>420534.9085976639</v>
+        <v>420534.9085976635</v>
       </c>
       <c r="D6" t="n">
-        <v>623973.6502097697</v>
+        <v>623973.6502097698</v>
       </c>
       <c r="E6" t="n">
-        <v>370664.463736975</v>
+        <v>370317.0844826183</v>
       </c>
       <c r="F6" t="n">
-        <v>696076.9255443298</v>
+        <v>695729.5462899731</v>
       </c>
       <c r="G6" t="n">
-        <v>696076.9255443292</v>
+        <v>695729.5462899732</v>
       </c>
       <c r="H6" t="n">
-        <v>696076.9255443305</v>
+        <v>695729.5462899734</v>
       </c>
       <c r="I6" t="n">
-        <v>696076.9255443303</v>
+        <v>695729.5462899734</v>
       </c>
       <c r="J6" t="n">
-        <v>528471.7477343477</v>
+        <v>528124.3684799909</v>
       </c>
       <c r="K6" t="n">
-        <v>646966.8328382787</v>
+        <v>646619.4535839187</v>
       </c>
       <c r="L6" t="n">
-        <v>696076.9255443299</v>
+        <v>695729.5462899732</v>
       </c>
       <c r="M6" t="n">
-        <v>611021.8976088179</v>
+        <v>610674.5183544614</v>
       </c>
       <c r="N6" t="n">
-        <v>696076.9255443297</v>
+        <v>695729.5462899732</v>
       </c>
       <c r="O6" t="n">
-        <v>696076.9255443277</v>
+        <v>695729.5462899732</v>
       </c>
       <c r="P6" t="n">
-        <v>696076.9255443303</v>
+        <v>695729.5462899733</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26764,16 +26764,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099644</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099644</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.731537989913844e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.560746160579325e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022496</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697358</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.731537989913844e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>201.7442592966208</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,19 +27432,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>29.81019037557539</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.1432734055896</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>295.1728158402071</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>116.3568147769025</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.79370436277603</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>83.97778634328782</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.3129182374906</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>8.871374720974615</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.0846429444037</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>205.8103709312223</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>1.233894212857884e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.523458944526143e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>1.672078567559044e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.125499693443999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29511,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.779199010343291e-11</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.750777300912887e-11</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,7 +31852,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>555.0107214892115</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>432.1946015714845</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>228.3420541567486</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>718.5832682008307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32788,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>456.3459017226589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832388</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>309.7666854143632</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>314.1059622342797</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473057</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418556</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067402</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>225.4828684302448</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>232.35237855373</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678995</v>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.6690094058782</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
@@ -35725,25 +35725,25 @@
         <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>290.0605676494662</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>97.00034207341533</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>587.2415561174975</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>318.5044627482999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275999055</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992783</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295285</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096341</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010441</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899064</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066242</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998978</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>171.2123056344891</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>176.2645232599207</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674315</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789168</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236334274</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88662398580036</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>611.5937738991432</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319001</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026135.990537622</v>
+        <v>4027896.520840408</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>360.9652358681773</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>176.8479946046584</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.9807481254279</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>87.56115536271761</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>129.1380851356426</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>105.7912389881538</v>
       </c>
       <c r="T7" t="n">
-        <v>135.5711629328814</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>120.6088074159629</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.1158122680962</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.67037196991708</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174124</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695562</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881274</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>185.0663491738892</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428172</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.273607737845</v>
+        <v>904.8820361188245</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2383.704990415652</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2383.704990415652</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2052.642103072081</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1699.873447801967</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1699.873447801967</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y2" t="n">
-        <v>1699.873447801967</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657491</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378422</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255065</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431134</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F4" t="n">
-        <v>102.742491745203</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3126.869541658774</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3126.869541658774</v>
+        <v>3084.872642898244</v>
       </c>
       <c r="V5" t="n">
-        <v>2795.806654315204</v>
+        <v>2753.809755554673</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.037999045089</v>
+        <v>2401.041100284559</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.572240784009</v>
+        <v>2027.575342023478</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.432908808198</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,7 +4752,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1820.434710726721</v>
       </c>
       <c r="T7" t="n">
         <v>1598.668095296247</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.34156756514</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624728</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179776</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197333</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301257</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866153</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605073</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629261</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4956,10 +4956,10 @@
         <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,10 +5132,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168594</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>1767.889897446606</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5600,16 +5600,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5761,16 +5761,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5834,16 +5834,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7788,31 +7788,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013359</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-4.034444200650487e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>101.118125215355</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633843.3781250037</v>
+        <v>633843.3781250035</v>
       </c>
     </row>
     <row r="3">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
@@ -26346,16 +26346,16 @@
         <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.499311276865072e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605454</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072219</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312011</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312011</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768981</v>
+        <v>9947.144321768927</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768979</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26450,13 +26450,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768992</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524578.1965587027</v>
+        <v>-524578.196558703</v>
       </c>
       <c r="C6" t="n">
-        <v>420534.9085976635</v>
+        <v>420534.908597664</v>
       </c>
       <c r="D6" t="n">
-        <v>623973.6502097698</v>
+        <v>623973.6502097696</v>
       </c>
       <c r="E6" t="n">
-        <v>370317.0844826183</v>
+        <v>370629.7258115387</v>
       </c>
       <c r="F6" t="n">
-        <v>695729.5462899731</v>
+        <v>696042.1876188946</v>
       </c>
       <c r="G6" t="n">
-        <v>695729.5462899732</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="H6" t="n">
-        <v>695729.5462899734</v>
+        <v>696042.1876188942</v>
       </c>
       <c r="I6" t="n">
-        <v>695729.5462899734</v>
+        <v>696042.1876188949</v>
       </c>
       <c r="J6" t="n">
-        <v>528124.3684799909</v>
+        <v>528437.0098089119</v>
       </c>
       <c r="K6" t="n">
-        <v>646619.4535839187</v>
+        <v>646932.0949128402</v>
       </c>
       <c r="L6" t="n">
-        <v>695729.5462899732</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="M6" t="n">
-        <v>610674.5183544614</v>
+        <v>610987.1596833825</v>
       </c>
       <c r="N6" t="n">
-        <v>695729.5462899732</v>
+        <v>696042.1876188947</v>
       </c>
       <c r="O6" t="n">
-        <v>695729.5462899732</v>
+        <v>696042.1876188946</v>
       </c>
       <c r="P6" t="n">
-        <v>695729.5462899733</v>
+        <v>696042.1876188945</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.30765590283022</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.81019037557539</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3258519193763</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>116.3568147769025</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>121.8570868232594</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.97778634328812</v>
       </c>
       <c r="T7" t="n">
-        <v>83.97778634328782</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>290.3129182374906</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.0846429444037</v>
+        <v>73.08464294440365</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.233894212857884e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28143,19 +28143,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>403.8524967138027</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3420541567486</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32320,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>491.819738231079</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321904</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304694</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>97.00034207341533</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>357.8453308167487</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236319001</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
